--- a/GlobalConfiguration.xlsx
+++ b/GlobalConfiguration.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
-    <sheet name="GlobalConfiguration" sheetId="3" r:id="rId2"/>
+    <sheet name="GlobalConfiguration_JS_Oracle" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="76">
   <si>
     <t xml:space="preserve">Global Configure Number </t>
   </si>
@@ -224,13 +224,37 @@
   </si>
   <si>
     <t>12 Month (445)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>whole year</t>
+  </si>
+  <si>
+    <t>need to add 2020 53</t>
+  </si>
+  <si>
+    <t>last week is later than beginning finantial year</t>
+  </si>
+  <si>
+    <t>last week is earlier than beginning finantial year</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>G-011</t>
+  </si>
+  <si>
+    <t>05/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +271,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -330,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -379,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,7 +709,8 @@
     <col min="5" max="5" width="31.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="3" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
@@ -1202,7 +1237,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>63</v>
       </c>
@@ -1213,12 +1248,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>42</v>
       </c>
@@ -1237,8 +1272,11 @@
       <c r="G36" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
@@ -1257,8 +1295,14 @@
       <c r="G37" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
@@ -1277,8 +1321,11 @@
       <c r="G38" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>45</v>
       </c>
@@ -1292,13 +1339,16 @@
         <v>5</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>45</v>
       </c>
@@ -1317,8 +1367,11 @@
       <c r="G40" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>45</v>
       </c>
@@ -1335,10 +1388,10 @@
         <v>55</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
@@ -1355,10 +1408,10 @@
         <v>56</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1398,7 +1451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1426,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1438,20 +1491,20 @@
     <col min="2" max="2" width="27.140625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.28515625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="12" width="11.7109375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="27.85546875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="15.5703125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="35.5703125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="21.7109375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="24.140625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="33.140625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="31.28515625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="31.140625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="27.85546875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="39.42578125" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="23.85546875" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="28.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="12" width="11.7109375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="27.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="15.5703125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="35.5703125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="21.7109375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="24.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="33.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="31.28515625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="31.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="27.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="39.42578125" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="23.85546875" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="36.140625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="22.42578125" style="3" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="16.140625" style="3" customWidth="1" outlineLevel="1"/>
@@ -1595,8 +1648,8 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -1779,8 +1832,8 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
+      <c r="B5" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
@@ -1963,8 +2016,8 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -2147,8 +2200,8 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+      <c r="B9" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>17</v>
@@ -2331,8 +2384,8 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
+      <c r="B11" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
@@ -2508,6 +2561,98 @@
         <v>57</v>
       </c>
       <c r="AD12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="5" t="s">
         <v>58</v>
       </c>
     </row>

--- a/GlobalConfiguration.xlsx
+++ b/GlobalConfiguration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="2" r:id="rId1"/>
@@ -393,6 +393,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -410,9 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,16 +1481,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" style="3" customWidth="1" outlineLevel="1"/>
     <col min="6" max="12" width="11.7109375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="27.85546875" style="3" customWidth="1" outlineLevel="1"/>
@@ -1516,41 +1516,41 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="14" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17"/>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1648,7 +1648,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1832,7 +1832,7 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2016,7 +2016,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2200,7 +2200,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2384,7 +2384,7 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2568,7 +2568,7 @@
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
